--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.56552729047048</v>
+        <v>0.3365521852103142</v>
       </c>
       <c r="D2" t="n">
-        <v>106.6845278249979</v>
+        <v>99.1231071854279</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -504,10 +504,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7213193387728233</v>
+        <v>0.09462444644427603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4707664244531365</v>
+        <v>0.9246191308781114</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.932260845261042</v>
+        <v>3.271726598574773</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7043045233426</v>
+        <v>90.90949586190925</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -537,10 +537,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.386746165115377</v>
+        <v>0.9198731486877424</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1656169933572546</v>
+        <v>0.3577092649888407</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>27.60844400112265</v>
+        <v>20.489872325343</v>
       </c>
       <c r="D4" t="n">
-        <v>38.92407659469929</v>
+        <v>54.67191585747635</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -570,10 +570,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>7.7623436887254</v>
+        <v>5.76089804702315</v>
       </c>
       <c r="H4" t="n">
-        <v>1.117583179064564e-14</v>
+        <v>9.170212484141563e-09</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -584,64 +584,97 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ln_fdi</t>
+          <t>tertiary_share_sq</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.66295094300895</v>
+        <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.843240183169871</v>
+        <v>21.53136706643642</v>
       </c>
       <c r="D5" t="n">
-        <v>117.8895048195899</v>
+        <v>52.79374569295835</v>
       </c>
       <c r="E5" t="n">
-        <v>9.656641617854888</v>
+        <v>13.56053058748441</v>
       </c>
       <c r="F5" t="n">
-        <v>8.645295030347428e-22</v>
+        <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.642875583850032</v>
+        <v>6.053722957041203</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1005081688309645</v>
+        <v>1.581736069367004e-09</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>需检查</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ln_fdi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>32.66295094300895</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.979673132347963</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109.1224860164869</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.656641617854888</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.645295030347428e-22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.8377598872433861</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4022289290092775</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ln_road_area</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>-22.93534586918614</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.108415522827745</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-69.00672192444253</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C7" t="n">
+        <v>-0.7723781488215303</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-96.63236755518378</v>
+      </c>
+      <c r="E7" t="n">
         <v>-6.731473306095445</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>1.957702669230089e-11</v>
       </c>
-      <c r="G6" t="n">
-        <v>-1.998590154816979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.04573824220434173</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G7" t="n">
+        <v>-0.2171605414839901</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8280972535816009</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -727,19 +760,19 @@
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>1.134965661191751</v>
+        <v>1.134434208527111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4558825768196347</v>
+        <v>0.455877884661925</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1561207995600737</v>
+        <v>0.1574095222632352</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1812240580910136</v>
+        <v>0.184749521947265</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9277721140264169</v>
+        <v>0.9351544332584775</v>
       </c>
     </row>
     <row r="3">
@@ -756,19 +789,19 @@
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>1.136768136423848</v>
+        <v>1.136118914357281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4558801941349653</v>
+        <v>0.455882018360749</v>
       </c>
       <c r="G3" t="n">
-        <v>0.144045975742338</v>
+        <v>0.1457815837570197</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1720740775059251</v>
+        <v>0.1798919439769675</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9121218378746613</v>
+        <v>0.918037859851653</v>
       </c>
     </row>
     <row r="4">
@@ -785,19 +818,19 @@
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>1.137491769999814</v>
+        <v>1.136682560272896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.45587982776752</v>
+        <v>0.4558875315652311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1389511058641787</v>
+        <v>0.1415897291679757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1590187521038061</v>
+        <v>0.1731594211844923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8971426305061341</v>
+        <v>0.9053366706458894</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +847,19 @@
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>1.138512788612686</v>
+        <v>1.137462449876291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4558823638172679</v>
+        <v>0.4558802205251314</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1257252262954587</v>
+        <v>0.1295884230354892</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2294405039985428</v>
+        <v>0.2377048333801086</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8635133481731365</v>
+        <v>0.8783269748364995</v>
       </c>
     </row>
     <row r="6">
@@ -843,19 +876,19 @@
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>1.138167067800468</v>
+        <v>1.137215553554008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4558824264636133</v>
+        <v>0.4558831007021503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1305716556397914</v>
+        <v>0.1340592719927949</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2090873558566397</v>
+        <v>0.2138600778478064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8748905854851853</v>
+        <v>0.8869253444704601</v>
       </c>
     </row>
     <row r="7">
@@ -872,19 +905,19 @@
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>1.138513365893011</v>
+        <v>1.137706560586925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4558823317012663</v>
+        <v>0.4558579720385676</v>
       </c>
       <c r="G7" t="n">
-        <v>0.131175904658576</v>
+        <v>0.1343193687919772</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2149067351916203</v>
+        <v>0.2191309382299363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8837765102697728</v>
+        <v>0.8929689733717709</v>
       </c>
     </row>
     <row r="8">
@@ -901,19 +934,19 @@
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>1.137918873341424</v>
+        <v>1.13728077563392</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4558829685280913</v>
+        <v>0.4559031713540883</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1385307508743188</v>
+        <v>0.1408291341884509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1872277877958456</v>
+        <v>0.2025227718341068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9056509834185049</v>
+        <v>0.9142092367328025</v>
       </c>
     </row>
     <row r="9">
@@ -930,19 +963,19 @@
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>1.138874938032006</v>
+        <v>1.13826111825791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4558633127907622</v>
+        <v>0.4558808322025088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1329402464728222</v>
+        <v>0.1353228446794389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2117223471592695</v>
+        <v>0.2124479991246679</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8828978758724536</v>
+        <v>0.8935099677788353</v>
       </c>
     </row>
     <row r="10">
@@ -959,19 +992,19 @@
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>1.1375357039104</v>
+        <v>1.137000388450454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4558825304072227</v>
+        <v>0.4558842820522531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1409735932933426</v>
+        <v>0.1430123778886961</v>
       </c>
       <c r="H10" t="n">
-        <v>0.165933754925027</v>
+        <v>0.1664568728568378</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9086741572117786</v>
+        <v>0.9179121544253221</v>
       </c>
     </row>
     <row r="11">
@@ -988,19 +1021,19 @@
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>1.134185285334304</v>
+        <v>1.133573279502847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4558826292966553</v>
+        <v>0.4558824606103568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1584570301154833</v>
+        <v>0.160463463870248</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1245063580959985</v>
+        <v>0.1246647451358507</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9165492474924385</v>
+        <v>0.9265988014464368</v>
       </c>
     </row>
     <row r="12">
@@ -1017,19 +1050,19 @@
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>1.135341623032754</v>
+        <v>1.135095788030593</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4558823019117905</v>
+        <v>0.4558822478561606</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1560096009912315</v>
+        <v>0.1569188596736608</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1408461164666977</v>
+        <v>0.1443141942799877</v>
       </c>
       <c r="I12" t="n">
-        <v>0.931100303704709</v>
+        <v>0.9362895668690131</v>
       </c>
     </row>
     <row r="13">
@@ -1046,19 +1079,19 @@
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>1.138253895751989</v>
+        <v>1.13806327037512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4558795445856036</v>
+        <v>0.4558827905558146</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1426824042023207</v>
+        <v>0.1434022503157772</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1731115421155844</v>
+        <v>0.1763477312243915</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9154025231481887</v>
+        <v>0.920188573960699</v>
       </c>
     </row>
     <row r="14">
@@ -1075,19 +1108,19 @@
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>1.137603693134761</v>
+        <v>1.137277719151322</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4558733279117964</v>
+        <v>0.4558810404526684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1437575109298635</v>
+        <v>0.1448174610017762</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1810939380920929</v>
+        <v>0.1842467028154326</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9262151833265422</v>
+        <v>0.9313249555254248</v>
       </c>
     </row>
     <row r="15">
@@ -1104,19 +1137,19 @@
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.137492876824812</v>
+        <v>1.137085861124306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4558758479290175</v>
+        <v>0.4558829401586367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1440550301375928</v>
+        <v>0.1452840388754392</v>
       </c>
       <c r="H15" t="n">
-        <v>0.200674776166838</v>
+        <v>0.1961669919200982</v>
       </c>
       <c r="I15" t="n">
-        <v>0.928102829539098</v>
+        <v>0.9330080285341689</v>
       </c>
     </row>
     <row r="16">
@@ -1133,19 +1166,19 @@
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>1.138165265678858</v>
+        <v>1.137631515809276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.45588341511634</v>
+        <v>0.4558855760120344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1405245495532606</v>
+        <v>0.1420477598290924</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2124385106326204</v>
+        <v>0.2182465780101087</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9220683944209536</v>
+        <v>0.9285701793552507</v>
       </c>
     </row>
     <row r="17">
@@ -1162,19 +1195,19 @@
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139504441645677</v>
+        <v>1.139005126867447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4558823351977628</v>
+        <v>0.4558819955097421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1359362650832752</v>
+        <v>0.1374398636605355</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2241569592197553</v>
+        <v>0.220881263207821</v>
       </c>
       <c r="I17" t="n">
-        <v>0.906301291437726</v>
+        <v>0.9137200334139748</v>
       </c>
     </row>
     <row r="18">
@@ -1191,19 +1224,19 @@
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.139830818430035</v>
+        <v>1.139478091203545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4558817992761596</v>
+        <v>0.4558811198441085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1357953323263658</v>
+        <v>0.1367541752163105</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2201152940682789</v>
+        <v>0.2173944970758712</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9034583173523117</v>
+        <v>0.9091924839029113</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1313,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">

--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -492,10 +492,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3365521852103142</v>
+        <v>-5.062293621080931</v>
       </c>
       <c r="D2" t="n">
-        <v>99.1231071854279</v>
+        <v>113.1898977236058</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -504,10 +504,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09462444644427603</v>
+        <v>-1.384053665424951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9246191308781114</v>
+        <v>0.1664453888926849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>3.271726598574773</v>
+        <v>-1.676422489111038</v>
       </c>
       <c r="D3" t="n">
-        <v>90.90949586190925</v>
+        <v>104.6579459240546</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -537,10 +537,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9198731486877424</v>
+        <v>-0.4583413892060091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3577092649888407</v>
+        <v>0.6467405249150434</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>20.489872325343</v>
+        <v>16.21594552480293</v>
       </c>
       <c r="D4" t="n">
-        <v>54.67191585747635</v>
+        <v>64.12677777939534</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -570,10 +570,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>5.76089804702315</v>
+        <v>4.433511866730184</v>
       </c>
       <c r="H4" t="n">
-        <v>9.170212484141563e-09</v>
+        <v>9.60515358271766e-06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>21.53136706643642</v>
+        <v>15.99776471493287</v>
       </c>
       <c r="D5" t="n">
-        <v>52.79374569295835</v>
+        <v>64.92584297378158</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -603,10 +603,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>6.053722957041203</v>
+        <v>4.373860259725699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.581736069367004e-09</v>
+        <v>1.262426739122109e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.979673132347963</v>
+        <v>-6.273725120801471</v>
       </c>
       <c r="D6" t="n">
-        <v>109.1224860164869</v>
+        <v>119.2074657667888</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -636,10 +636,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8377598872433861</v>
+        <v>-1.715264443207027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4022289290092775</v>
+        <v>0.08640043158271631</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -657,10 +657,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7723781488215303</v>
+        <v>0.3968688470246407</v>
       </c>
       <c r="D7" t="n">
-        <v>-96.63236755518378</v>
+        <v>-101.7303809120134</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -669,10 +669,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2171605414839901</v>
+        <v>0.1085057137203632</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8280972535816009</v>
+        <v>0.9136018339016092</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3162</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="8">

--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -760,7 +760,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>1.134434208527111</v>
+        <v>0.100209805982843</v>
       </c>
       <c r="F2" t="n">
         <v>0.455877884661925</v>
@@ -789,7 +789,7 @@
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>1.136118914357281</v>
+        <v>0.08893379370591969</v>
       </c>
       <c r="F3" t="n">
         <v>0.455882018360749</v>
@@ -818,7 +818,7 @@
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>1.136682560272896</v>
+        <v>0.08516121920032593</v>
       </c>
       <c r="F4" t="n">
         <v>0.4558875315652311</v>
@@ -847,7 +847,7 @@
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>1.137462449876291</v>
+        <v>0.07994129024594343</v>
       </c>
       <c r="F5" t="n">
         <v>0.4558802205251314</v>
@@ -876,7 +876,7 @@
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>1.137215553554008</v>
+        <v>0.08159380780202907</v>
       </c>
       <c r="F6" t="n">
         <v>0.4558831007021503</v>
@@ -905,7 +905,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>1.137706560586925</v>
+        <v>0.07830741724524048</v>
       </c>
       <c r="F7" t="n">
         <v>0.4558579720385676</v>
@@ -934,7 +934,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>1.13728077563392</v>
+        <v>0.08115726573002424</v>
       </c>
       <c r="F8" t="n">
         <v>0.4559031713540883</v>
@@ -963,7 +963,7 @@
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>1.13826111825791</v>
+        <v>0.07459567185070415</v>
       </c>
       <c r="F9" t="n">
         <v>0.4558808322025088</v>
@@ -992,7 +992,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>1.137000388450454</v>
+        <v>0.08303394310979995</v>
       </c>
       <c r="F10" t="n">
         <v>0.4558842820522531</v>
@@ -1021,7 +1021,7 @@
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>1.133573279502847</v>
+        <v>0.1059721450650205</v>
       </c>
       <c r="F11" t="n">
         <v>0.4558824606103568</v>
@@ -1050,7 +1050,7 @@
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>1.135095788030593</v>
+        <v>0.09578174592046984</v>
       </c>
       <c r="F12" t="n">
         <v>0.4558822478561606</v>
@@ -1079,7 +1079,7 @@
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>1.13806327037512</v>
+        <v>0.07591990016127625</v>
       </c>
       <c r="F13" t="n">
         <v>0.4558827905558146</v>
@@ -1108,7 +1108,7 @@
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>1.137277719151322</v>
+        <v>0.08117772326907091</v>
       </c>
       <c r="F14" t="n">
         <v>0.4558810404526684</v>
@@ -1137,7 +1137,7 @@
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.137085861124306</v>
+        <v>0.08246186049309767</v>
       </c>
       <c r="F15" t="n">
         <v>0.4558829401586367</v>
@@ -1166,7 +1166,7 @@
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>1.137631515809276</v>
+        <v>0.07880970424332856</v>
       </c>
       <c r="F16" t="n">
         <v>0.4558855760120344</v>
@@ -1195,7 +1195,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139005126867447</v>
+        <v>0.0696159002697887</v>
       </c>
       <c r="F17" t="n">
         <v>0.4558819955097421</v>
@@ -1224,7 +1224,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.139478091203545</v>
+        <v>0.06645027244036017</v>
       </c>
       <c r="F18" t="n">
         <v>0.4558811198441085</v>

--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -492,10 +492,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.062293621080931</v>
+        <v>-6.016051223453828</v>
       </c>
       <c r="D2" t="n">
-        <v>113.1898977236058</v>
+        <v>115.6749304321044</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -504,10 +504,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.384053665424951</v>
+        <v>-1.616516434106535</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664453888926849</v>
+        <v>0.1060919970647919</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.676422489111038</v>
+        <v>-2.70183417128715</v>
       </c>
       <c r="D3" t="n">
-        <v>104.6579459240546</v>
+        <v>107.5070559762604</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -537,10 +537,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4583413892060091</v>
+        <v>-0.7259844003802982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6467405249150434</v>
+        <v>0.4679072029032999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>16.21594552480293</v>
+        <v>16.36323507898635</v>
       </c>
       <c r="D4" t="n">
-        <v>64.12677777939534</v>
+        <v>63.80094103432771</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -570,10 +570,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.433511866730184</v>
+        <v>4.396810704870321</v>
       </c>
       <c r="H4" t="n">
-        <v>9.60515358271766e-06</v>
+        <v>1.138237327660256e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>15.99776471493287</v>
+        <v>16.04598883199703</v>
       </c>
       <c r="D5" t="n">
-        <v>64.92584297378158</v>
+        <v>64.82011443704543</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -603,10 +603,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.373860259725699</v>
+        <v>4.311566455300509</v>
       </c>
       <c r="H5" t="n">
-        <v>1.262426739122109e-05</v>
+        <v>1.675335549355125e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.273725120801471</v>
+        <v>-6.255117825814145</v>
       </c>
       <c r="D6" t="n">
-        <v>119.2074657667888</v>
+        <v>119.150498179813</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -636,10 +636,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.715264443207027</v>
+        <v>-1.680753768066534</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08640043158271631</v>
+        <v>0.09291896427548889</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -657,10 +657,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3968688470246407</v>
+        <v>-0.821083799666471</v>
       </c>
       <c r="D7" t="n">
-        <v>-101.7303809120134</v>
+        <v>-96.42000689961425</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -669,10 +669,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1085057137203632</v>
+        <v>-0.2206256906132998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9136018339016092</v>
+        <v>0.8253995017236808</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2990</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="8">

--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -492,10 +492,10 @@
         <v>38.38008244765244</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.016051223453828</v>
+        <v>-5.062293621080931</v>
       </c>
       <c r="D2" t="n">
-        <v>115.6749304321044</v>
+        <v>113.1898977236058</v>
       </c>
       <c r="E2" t="n">
         <v>11.26926349139651</v>
@@ -504,10 +504,10 @@
         <v>5.89907124584044e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.616516434106535</v>
+        <v>-1.384053665424951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1060919970647919</v>
+        <v>0.1664453888926849</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         <v>35.99059577857386</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.70183417128715</v>
+        <v>-1.676422489111038</v>
       </c>
       <c r="D3" t="n">
-        <v>107.5070559762604</v>
+        <v>104.6579459240546</v>
       </c>
       <c r="E3" t="n">
         <v>10.57449205333255</v>
@@ -537,10 +537,10 @@
         <v>9.612212033869378e-26</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7259844003802982</v>
+        <v>-0.4583413892060091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4679072029032999</v>
+        <v>0.6467405249150434</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         <v>45.20348193168135</v>
       </c>
       <c r="C4" t="n">
-        <v>16.36323507898635</v>
+        <v>16.21594552480293</v>
       </c>
       <c r="D4" t="n">
-        <v>63.80094103432771</v>
+        <v>64.12677777939534</v>
       </c>
       <c r="E4" t="n">
         <v>13.36117248875251</v>
@@ -570,10 +570,10 @@
         <v>9.650858568988543e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.396810704870321</v>
+        <v>4.433511866730184</v>
       </c>
       <c r="H4" t="n">
-        <v>1.138237327660256e-05</v>
+        <v>9.60515358271766e-06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         <v>45.61125931829044</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04598883199703</v>
+        <v>15.99776471493287</v>
       </c>
       <c r="D5" t="n">
-        <v>64.82011443704543</v>
+        <v>64.92584297378158</v>
       </c>
       <c r="E5" t="n">
         <v>13.56053058748441</v>
@@ -603,10 +603,10 @@
         <v>7.429898583901447e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.311566455300509</v>
+        <v>4.373860259725699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.675335549355125e-05</v>
+        <v>1.262426739122109e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>32.66295094300895</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.255117825814145</v>
+        <v>-6.273725120801471</v>
       </c>
       <c r="D6" t="n">
-        <v>119.150498179813</v>
+        <v>119.2074657667888</v>
       </c>
       <c r="E6" t="n">
         <v>9.656641617854888</v>
@@ -636,10 +636,10 @@
         <v>8.645295030347428e-22</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.680753768066534</v>
+        <v>-1.715264443207027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09291896427548889</v>
+        <v>0.08640043158271631</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -657,10 +657,10 @@
         <v>-22.93534586918614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.821083799666471</v>
+        <v>0.3968688470246407</v>
       </c>
       <c r="D7" t="n">
-        <v>-96.42000689961425</v>
+        <v>-101.7303809120134</v>
       </c>
       <c r="E7" t="n">
         <v>-6.731473306095445</v>
@@ -669,10 +669,10 @@
         <v>1.957702669230089e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2206256906132998</v>
+        <v>0.1085057137203632</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8253995017236808</v>
+        <v>0.9136018339016092</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2888</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="8">

--- a/倾向得分匹配_汇总报告.xlsx
+++ b/倾向得分匹配_汇总报告.xlsx
@@ -489,25 +489,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.38008244765244</v>
+        <v>40.513145070086</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.062293621080931</v>
+        <v>-7.068548925739601</v>
       </c>
       <c r="D2" t="n">
-        <v>113.1898977236058</v>
+        <v>117.4475442810261</v>
       </c>
       <c r="E2" t="n">
-        <v>11.26926349139651</v>
+        <v>11.85399445785516</v>
       </c>
       <c r="F2" t="n">
-        <v>5.89907124584044e-29</v>
+        <v>8.432330285233003e-32</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.384053665424951</v>
+        <v>-1.919602384290459</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664453888926849</v>
+        <v>0.05500455789510932</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,25 +522,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.99059577857386</v>
+        <v>38.77447001322777</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.676422489111038</v>
+        <v>-2.454891477451095</v>
       </c>
       <c r="D3" t="n">
-        <v>104.6579459240546</v>
+        <v>106.3312057562969</v>
       </c>
       <c r="E3" t="n">
-        <v>10.57449205333255</v>
+        <v>11.34926525919532</v>
       </c>
       <c r="F3" t="n">
-        <v>9.612212033869378e-26</v>
+        <v>2.462610968144726e-29</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4583413892060091</v>
+        <v>-0.6666736812317358</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6467405249150434</v>
+        <v>0.5050327647097874</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -555,25 +555,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.20348193168135</v>
+        <v>45.62266244998454</v>
       </c>
       <c r="C4" t="n">
-        <v>16.21594552480293</v>
+        <v>15.81858468899152</v>
       </c>
       <c r="D4" t="n">
-        <v>64.12677777939534</v>
+        <v>65.32735303132911</v>
       </c>
       <c r="E4" t="n">
-        <v>13.36117248875251</v>
+        <v>13.45315477266147</v>
       </c>
       <c r="F4" t="n">
-        <v>9.650858568988543e-40</v>
+        <v>3.001707526032056e-40</v>
       </c>
       <c r="G4" t="n">
-        <v>4.433511866730184</v>
+        <v>4.295845328949389</v>
       </c>
       <c r="H4" t="n">
-        <v>9.60515358271766e-06</v>
+        <v>1.796559416853624e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -588,25 +588,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.61125931829044</v>
+        <v>46.05603002533842</v>
       </c>
       <c r="C5" t="n">
-        <v>15.99776471493287</v>
+        <v>15.98614792574502</v>
       </c>
       <c r="D5" t="n">
-        <v>64.92584297378158</v>
+        <v>65.2897830817159</v>
       </c>
       <c r="E5" t="n">
-        <v>13.56053058748441</v>
+        <v>13.66547951108378</v>
       </c>
       <c r="F5" t="n">
-        <v>7.429898583901447e-41</v>
+        <v>1.922827990237357e-41</v>
       </c>
       <c r="G5" t="n">
-        <v>4.373860259725699</v>
+        <v>4.341350395430594</v>
       </c>
       <c r="H5" t="n">
-        <v>1.262426739122109e-05</v>
+        <v>1.463788503295196e-05</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -621,25 +621,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.66295094300895</v>
+        <v>34.78050290287268</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.273725120801471</v>
+        <v>-9.772977114567368</v>
       </c>
       <c r="D6" t="n">
-        <v>119.2074657667888</v>
+        <v>128.0990103618087</v>
       </c>
       <c r="E6" t="n">
-        <v>9.656641617854888</v>
+        <v>10.2520695598253</v>
       </c>
       <c r="F6" t="n">
-        <v>8.645295030347428e-22</v>
+        <v>2.577417889666272e-24</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.715264443207027</v>
+        <v>-2.654042628526714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08640043158271631</v>
+        <v>0.007996100894840628</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -654,25 +654,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.93534586918614</v>
+        <v>-22.15978085441232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3968688470246407</v>
+        <v>-4.742158620982538</v>
       </c>
       <c r="D7" t="n">
-        <v>-101.7303809120134</v>
+        <v>-78.60015560560787</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.731473306095445</v>
+        <v>-6.483495828640407</v>
       </c>
       <c r="F7" t="n">
-        <v>1.957702669230089e-11</v>
+        <v>1.023746718989906e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1085057137203632</v>
+        <v>-1.287825703854651</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9136018339016092</v>
+        <v>0.1979077234816199</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -751,28 +751,28 @@
         <v>2007</v>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
         <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100209805982843</v>
+        <v>0.09977099736574302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.455877884661925</v>
+        <v>0.4532026309406055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1574095222632352</v>
+        <v>0.1577641028665121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.184749521947265</v>
+        <v>0.1849570869093597</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9351544332584775</v>
+        <v>0.9323191493612728</v>
       </c>
     </row>
     <row r="3">
@@ -780,28 +780,28 @@
         <v>2008</v>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
         <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08893379370591969</v>
+        <v>0.08986594323729191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.455882018360749</v>
+        <v>0.4532111167644139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1457815837570197</v>
+        <v>0.147431075357311</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1798919439769675</v>
+        <v>0.1861553052562702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.918037859851653</v>
+        <v>0.916584103080029</v>
       </c>
     </row>
     <row r="4">
@@ -809,28 +809,28 @@
         <v>2009</v>
       </c>
       <c r="B4" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
         <v>111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08516121920032593</v>
+        <v>0.08842248683873799</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4558875315652311</v>
+        <v>0.4531983988853353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1415897291679757</v>
+        <v>0.1458089683272587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1731594211844923</v>
+        <v>0.1637789997160848</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9053366706458894</v>
+        <v>0.9065801950909514</v>
       </c>
     </row>
     <row r="5">
@@ -838,28 +838,28 @@
         <v>2010</v>
       </c>
       <c r="B5" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07994129024594343</v>
+        <v>0.08495809549248023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4558802205251314</v>
+        <v>0.4532174150278165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1295884230354892</v>
+        <v>0.1365027400908502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2377048333801086</v>
+        <v>0.2147692381616045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8783269748364995</v>
+        <v>0.8874479820024933</v>
       </c>
     </row>
     <row r="6">
@@ -867,28 +867,28 @@
         <v>2011</v>
       </c>
       <c r="B6" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
         <v>111</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08159380780202907</v>
+        <v>0.08621559973992721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4558831007021503</v>
+        <v>0.4532032286776387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1340592719927949</v>
+        <v>0.1392761517824346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2138600778478064</v>
+        <v>0.2056122695209196</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8869253444704601</v>
+        <v>0.8884916975437769</v>
       </c>
     </row>
     <row r="7">
@@ -896,28 +896,28 @@
         <v>2012</v>
       </c>
       <c r="B7" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
         <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07830741724524048</v>
+        <v>0.08292700092851069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4558579720385676</v>
+        <v>0.4532127981979689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1343193687919772</v>
+        <v>0.1391294271978377</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2191309382299363</v>
+        <v>0.2121393264522443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8929689733717709</v>
+        <v>0.8952551184951452</v>
       </c>
     </row>
     <row r="8">
@@ -925,28 +925,28 @@
         <v>2013</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08115726573002424</v>
+        <v>0.08555601492610587</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4559031713540883</v>
+        <v>0.4532018270722092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1408291341884509</v>
+        <v>0.1451019226228711</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2025227718341068</v>
+        <v>0.1957399317799529</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9142092367328025</v>
+        <v>0.9167325616392493</v>
       </c>
     </row>
     <row r="9">
@@ -954,28 +954,28 @@
         <v>2014</v>
       </c>
       <c r="B9" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
         <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07459567185070415</v>
+        <v>0.0785375304975372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4558808322025088</v>
+        <v>0.4532018640927095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1353228446794389</v>
+        <v>0.1406317628548858</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2124479991246679</v>
+        <v>0.2100898588125063</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8935099677788353</v>
+        <v>0.9002703640511985</v>
       </c>
     </row>
     <row r="10">
@@ -983,28 +983,28 @@
         <v>2015</v>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
         <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08303394310979995</v>
+        <v>0.08743228832153915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4558842820522531</v>
+        <v>0.4532027415755536</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1430123778886961</v>
+        <v>0.1474895639194844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1664568728568378</v>
+        <v>0.1654568206009131</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9179121544253221</v>
+        <v>0.9197151906606726</v>
       </c>
     </row>
     <row r="11">
@@ -1012,28 +1012,28 @@
         <v>2016</v>
       </c>
       <c r="B11" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1059721450650205</v>
+        <v>0.1095907626910743</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4558824606103568</v>
+        <v>0.4532016504037353</v>
       </c>
       <c r="G11" t="n">
-        <v>0.160463463870248</v>
+        <v>0.1637469431324952</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1246647451358507</v>
+        <v>0.125865810585801</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9265988014464368</v>
+        <v>0.9285214790208434</v>
       </c>
     </row>
     <row r="12">
@@ -1041,28 +1041,28 @@
         <v>2017</v>
       </c>
       <c r="B12" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="n">
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09578174592046984</v>
+        <v>0.09898431166897437</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4558822478561606</v>
+        <v>0.4532042259712421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1569188596736608</v>
+        <v>0.1599240250489777</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1443141942799877</v>
+        <v>0.1372235057552265</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9362895668690131</v>
+        <v>0.937683302546601</v>
       </c>
     </row>
     <row r="13">
@@ -1070,28 +1070,28 @@
         <v>2018</v>
       </c>
       <c r="B13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
         <v>111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07591990016127625</v>
+        <v>0.08283412654603084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4558827905558146</v>
+        <v>0.4532005330824418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1434022503157772</v>
+        <v>0.149583077855426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1763477312243915</v>
+        <v>0.1674054217607543</v>
       </c>
       <c r="I13" t="n">
-        <v>0.920188573960699</v>
+        <v>0.9275039134164113</v>
       </c>
     </row>
     <row r="14">
@@ -1099,28 +1099,28 @@
         <v>2019</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="n">
         <v>111</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08117772326907091</v>
+        <v>0.08701618396595268</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4558810404526684</v>
+        <v>0.4532020268695962</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1448174610017762</v>
+        <v>0.1504556489204788</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1842467028154326</v>
+        <v>0.1696854112019311</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9313249555254248</v>
+        <v>0.9375293976677159</v>
       </c>
     </row>
     <row r="15">
@@ -1128,28 +1128,28 @@
         <v>2020</v>
       </c>
       <c r="B15" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="n">
         <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08246186049309767</v>
+        <v>0.08724670604708662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4558829401586367</v>
+        <v>0.4532026534724997</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1452840388754392</v>
+        <v>0.1501233611942141</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1961669919200982</v>
+        <v>0.1936220731502089</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9330080285341689</v>
+        <v>0.9383334181416273</v>
       </c>
     </row>
     <row r="16">
@@ -1157,28 +1157,28 @@
         <v>2021</v>
       </c>
       <c r="B16" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="n">
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07880970424332856</v>
+        <v>0.08319558684488204</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4558855760120344</v>
+        <v>0.4532021290654247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1420477598290924</v>
+        <v>0.1471645958562196</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2182465780101087</v>
+        <v>0.2084953743756085</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9285701793552507</v>
+        <v>0.9332107102844002</v>
       </c>
     </row>
     <row r="17">
@@ -1186,28 +1186,28 @@
         <v>2022</v>
       </c>
       <c r="B17" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
         <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0696159002697887</v>
+        <v>0.0744398089774716</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4558819955097421</v>
+        <v>0.4532005990254759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1374398636605355</v>
+        <v>0.1434160849636614</v>
       </c>
       <c r="H17" t="n">
-        <v>0.220881263207821</v>
+        <v>0.2070529740005867</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9137200334139748</v>
+        <v>0.918698850796704</v>
       </c>
     </row>
     <row r="18">
@@ -1215,28 +1215,28 @@
         <v>2023</v>
       </c>
       <c r="B18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="n">
         <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06645027244036017</v>
+        <v>0.07095383353658702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4558811198441085</v>
+        <v>0.4532030815817958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1367541752163105</v>
+        <v>0.1424617180595062</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2173944970758712</v>
+        <v>0.2041227207798572</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9091924839029113</v>
+        <v>0.9124641724070298</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3468</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="7">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2990</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="8">
